--- a/output/weight/櫻井愛菜_weight.xlsx
+++ b/output/weight/櫻井愛菜_weight.xlsx
@@ -1,120 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
-  <si>
-    <t>レポート年</t>
-  </si>
-  <si>
-    <t>レポート月</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>スクワットMax</t>
-  </si>
-  <si>
-    <t>スクワット 10RM</t>
-  </si>
-  <si>
-    <t>ベンチMax</t>
-  </si>
-  <si>
-    <t>ベンチ 10RM</t>
-  </si>
-  <si>
-    <t>デッドリフトMax</t>
-  </si>
-  <si>
-    <t>デッドリフト 10RM</t>
-  </si>
-  <si>
-    <t>クリーンMax</t>
-  </si>
-  <si>
-    <t>クリーン 10RM</t>
-  </si>
-  <si>
-    <t>2020年度</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>櫻井愛菜</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -129,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,469 +420,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>レポート年</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>レポート月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>スクワットMax</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>スクワット 10RM</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ベンチMax</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ベンチ 10RM</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>デッドリフトMax</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>デッドリフト 10RM</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>クリーンMax</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>クリーン 10RM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>85.17091802469159</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1.989990223881126</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>68.01828722132134</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>7.308210212102926</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>89.65448285284904</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>16.84277811789694</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>60.94257537793546</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>14.40004924995586</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>89.45531661825109</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>19.81152271940365</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>89.36924437171648</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>15.6015946888536</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>58.94076184257656</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>10.84634401178182</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>77.52851355213801</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>12.72852407534928</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>81.75077918835375</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>4.830978479237476</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>55.05487311949726</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>3.815647151485194</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>64.28568036480128</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>8.414292667290773</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>96.13469638505168</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>14.60672871369565</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4月</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>79.63620302783663</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>12.98972175660586</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>63.68769359803682</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>8.045927800279081</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>90.13210176711232</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>5.202121293484375</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>59.11698792049585</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>16.97712040654273</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>51.59857401401084</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>13.09043457027055</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>66.70674454607217</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>7.921570820259733</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>86.809043036535</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>18.10394593869153</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>99.15890731310182</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>2.346763195047281</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>67.26455035743982</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>4.98500964648985</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>52.21086554614411</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>5.817286272121482</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>92.77510640786886</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>17.35718199424599</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>87.84143677673956</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>10.56602643212916</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>56.03140276641035</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>4.438588151307185</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>74.67698858311877</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>18.93808448471062</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>55.25010564463143</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>14.54516003776468</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>58.0328447759638</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>18.26216823469201</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>76.22665069915986</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>17.07533407123918</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>74.03581373477428</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>15.93788521686807</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>68.48895995998741</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>4.001842070860231</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>92.80615776861669</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>17.07033099070577</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>92.72794826032512</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>8.146516333248112</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>51.11601881862124</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>18.11352478577895</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>80.45016314664477</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>2.390504673781177</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>76.57313226792553</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>6.383657542793181</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>75.10711030345757</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>9.522416111388505</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>80.97761016357697</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>7.915600481733755</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>73.9457595421882</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>11.84098533967217</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>70.83656948978958</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>18.67336020996435</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>76.47035155475136</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>10.69762164881837</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>71.66103387781997</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>7.398119683580521</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>57.17323875199497</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>8.270655976264608</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>94.7205321472759</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>4.8149702403467</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>櫻井愛菜</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>65.16069949289145</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>2.887740731505602</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>95.37087919719499</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>15.7228431202744</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>72.26297465042569</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>17.78471491802167</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>97.12846207415681</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>16.90788078667218</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>